--- a/data/trans_dic/P19C10_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C10_2023-Habitat-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población cuyo motivo por su última visita al dentista fue por dolor de mandíbula (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -874,7 +874,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población cuyo motivo por su última visita al dentista fue por dolor de mandíbula (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P19C10_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19C10_2023-Habitat-trans_dic.xlsx
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0002518605167886963</v>
+        <v>0.0002535371628680799</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.009925589463396882</v>
+        <v>0.010000736407609</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.003094491728674805</v>
+        <v>0.003206590725865753</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.005268049576360483</v>
+        <v>0.005413313457010652</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.002752603859442197</v>
+        <v>0.002752603859442198</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.007256888691334516</v>
+        <v>0.007256888691334515</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.005039231753754726</v>
+        <v>0.005039231753754725</v>
       </c>
     </row>
     <row r="8">
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.003587174046360523</v>
+        <v>0.003646096186839426</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002726069822353577</v>
+        <v>0.002693493793272694</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.009994765558916586</v>
+        <v>0.01244955983410903</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01318306541415015</v>
+        <v>0.01310517189905146</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.009235077195406574</v>
+        <v>0.009080225770269146</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.006528465557626098</v>
+        <v>0.006528465557626097</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.00718897832780996</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.006863212281004448</v>
+        <v>0.006863212281004446</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.001706564819115411</v>
+        <v>0.001723685031038786</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003335118295538743</v>
+        <v>0.00338567684832619</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.003371279486981322</v>
+        <v>0.003563522072259011</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01646016028617626</v>
+        <v>0.01588189257550169</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01437195026921659</v>
+        <v>0.01366613382147602</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01187574444966783</v>
+        <v>0.01183426953486222</v>
       </c>
     </row>
     <row r="13">
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.00441055104888608</v>
+        <v>0.004168371726276879</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.002836855304293806</v>
+        <v>0.002942030865064518</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.007643676362528353</v>
+        <v>0.006451584065600774</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01505421957318378</v>
+        <v>0.01497796283990684</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.008877654530605392</v>
+        <v>0.008549175034928662</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.003165421777846134</v>
+        <v>0.003165421777846135</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.006339570021474907</v>
+        <v>0.006339570021474908</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.004803967007297226</v>
+        <v>0.004803967007297227</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.00162456209404441</v>
+        <v>0.001593632443827996</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004324573744528856</v>
+        <v>0.004224772903958522</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.003424482217022361</v>
+        <v>0.003490097040619472</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.006311647479383078</v>
+        <v>0.006034188647817207</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.008982351092309425</v>
+        <v>0.008925572661733721</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.006762913157927819</v>
+        <v>0.006598243935409579</v>
       </c>
     </row>
     <row r="19">
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6546</v>
+        <v>6596</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>2185</v>
+        <v>2264</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7194</v>
+        <v>7393</v>
       </c>
     </row>
     <row r="8">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3759</v>
+        <v>3820</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5627</v>
+        <v>5559</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10156</v>
+        <v>12651</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>13813</v>
+        <v>13731</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>19061</v>
+        <v>18741</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1321</v>
+        <v>1334</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2653</v>
+        <v>2693</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5291</v>
+        <v>5592</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12740</v>
+        <v>12293</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11431</v>
+        <v>10869</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>18637</v>
+        <v>18572</v>
       </c>
     </row>
     <row r="16">
@@ -1185,10 +1185,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4747</v>
+        <v>4486</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5742</v>
+        <v>5955</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7246</v>
+        <v>6116</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16201</v>
+        <v>16119</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>17970</v>
+        <v>17305</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5520</v>
+        <v>5415</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>15679</v>
+        <v>15317</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>24051</v>
+        <v>24511</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>21445</v>
+        <v>20502</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>32565</v>
+        <v>32359</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>47497</v>
+        <v>46340</v>
       </c>
     </row>
     <row r="24">
